--- a/database/TECH_SKILLS.xlsx
+++ b/database/TECH_SKILLS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/Operation_Otter/OperationOtter/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC8AD31A-4060-2E47-B068-00690F30BD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E338DB-E3B9-854E-85CC-0A12222621A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -68,52 +68,6 @@
   </si>
   <si>
     <t>MULT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">URL's help users know what website they are on. By creating similar deceptive URL's (e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>BB.C.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AIjazeera.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) for your fake websites your narratives will spread farther. </t>
-    </r>
   </si>
   <si>
     <t>TECH3</t>
@@ -230,12 +184,67 @@
   <si>
     <t xml:space="preserve">b </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">URL's help users know what website they are on. By creating similar deceptive URL's (e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BB.C.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AIjazeera.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) for your fake websites your narratives will spread farther. </t>
+    </r>
+  </si>
+  <si>
+    <t>Artificial Intelligence is changing the tactics and capabilities of disinformation actors. Upgrade this tree to learn more about how AI tools can be used to increase the spread of misinformation.</t>
+  </si>
+  <si>
+    <t>Text generative AI has the capabilities to create convincing, official sounding text on a whim. The speed and quality of this text can be used to create more convincing bots, fake news articles en mass that support those bots, and tweets that take advantage of misinformation linguitic tactics. All your responses are now more powerful.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -274,6 +283,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -303,6 +332,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +554,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -639,8 +669,8 @@
       <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
+      <c r="H3" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -663,10 +693,10 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -684,7 +714,7 @@
         <v>1.5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -707,10 +737,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -722,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -751,10 +781,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -766,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -795,10 +825,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -810,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -839,10 +869,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -857,13 +887,13 @@
         <v>15</v>
       </c>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -885,10 +915,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -903,10 +933,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -929,10 +959,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -947,10 +977,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -973,10 +1003,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>9</v>
@@ -994,7 +1024,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1017,10 +1047,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -1038,7 +1068,7 @@
         <v>7500</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1061,10 +1091,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
@@ -1073,7 +1103,7 @@
         <v>25000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1082,7 +1112,7 @@
         <v>15000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1105,7 +1135,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -28743,9 +28773,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/TECH_SKILLS.xlsx
+++ b/database/TECH_SKILLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/Operation_Otter/OperationOtter/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E338DB-E3B9-854E-85CC-0A12222621A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E95536A-9160-4B4D-A1C6-0C2B3973577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
